--- a/public/assets/templates/import_template.xlsx
+++ b/public/assets/templates/import_template.xlsx
@@ -404,14 +404,14 @@
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="35.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="30.83203125" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="35.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -419,16 +419,16 @@
         <v>公司名称</v>
       </c>
       <c r="B1" t="str">
+        <v>域名</v>
+      </c>
+      <c r="C1" t="str">
         <v>网站</v>
-      </c>
-      <c r="C1" t="str">
-        <v>域名</v>
       </c>
       <c r="D1" t="str">
         <v>行业</v>
       </c>
       <c r="E1" t="str">
-        <v>国家</v>
+        <v>地区</v>
       </c>
       <c r="F1" t="str">
         <v>地址</v>
@@ -451,10 +451,10 @@
         <v>示例公司A（必填）</v>
       </c>
       <c r="B2" t="str">
-        <v>https://example-a.com</v>
+        <v>example-a.com（必填，或填网站）</v>
       </c>
       <c r="C2" t="str">
-        <v>example-a.com</v>
+        <v>https://www.example-a.com</v>
       </c>
       <c r="D2" t="str">
         <v>制造业</v>
@@ -463,16 +463,16 @@
         <v>美国</v>
       </c>
       <c r="F2" t="str">
-        <v>123 Main Street, New York</v>
+        <v>123 Main St, New York</v>
       </c>
       <c r="G2" t="str">
-        <v>张三</v>
+        <v>John Doe</v>
       </c>
       <c r="H2" t="str">
-        <v>采购经理</v>
+        <v>Sales Manager</v>
       </c>
       <c r="I2" t="str">
-        <v>zhangsan@example-a.com</v>
+        <v>john@example-a.com（邮箱/电话至少一个）</v>
       </c>
       <c r="J2" t="str">
         <v>+1-123-456-7890</v>
@@ -483,31 +483,31 @@
         <v>示例公司B</v>
       </c>
       <c r="B3" t="str">
-        <v>https://example-b.co.uk</v>
+        <v/>
       </c>
       <c r="C3" t="str">
-        <v>example-b.co.uk</v>
+        <v>https://www.example-b.com</v>
       </c>
       <c r="D3" t="str">
-        <v>贸易</v>
+        <v>批发</v>
       </c>
       <c r="E3" t="str">
-        <v>英国</v>
+        <v>加拿大</v>
       </c>
       <c r="F3" t="str">
-        <v>45 Commerce Road, London</v>
+        <v/>
       </c>
       <c r="G3" t="str">
-        <v>李四</v>
+        <v/>
       </c>
       <c r="H3" t="str">
-        <v>进口总监</v>
+        <v/>
       </c>
       <c r="I3" t="str">
-        <v>lisi@example-b.co.uk</v>
+        <v>info@example-b.com</v>
       </c>
       <c r="J3" t="str">
-        <v>+44-20-7123-4567</v>
+        <v/>
       </c>
     </row>
   </sheetData>
